--- a/CumulativeTestsByTypeByCounty/2021-09-21.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-09-21.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>69314</v>
+        <v>69399</v>
       </c>
       <c r="C2" s="4">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="D2" s="4">
-        <v>20350</v>
+        <v>20560</v>
       </c>
       <c r="E2" s="4">
-        <v>91460</v>
+        <v>91757</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5187</v>
+        <v>5197</v>
       </c>
       <c r="C3" s="4">
         <v>282</v>
       </c>
       <c r="D3" s="4">
-        <v>4411</v>
+        <v>4500</v>
       </c>
       <c r="E3" s="4">
-        <v>9880</v>
+        <v>9979</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>73090</v>
+        <v>73189</v>
       </c>
       <c r="C4" s="4">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="D4" s="4">
-        <v>52248</v>
+        <v>53465</v>
       </c>
       <c r="E4" s="4">
-        <v>129232</v>
+        <v>130549</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>13614</v>
+        <v>13671</v>
       </c>
       <c r="C5" s="4">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="D5" s="4">
-        <v>10022</v>
+        <v>10064</v>
       </c>
       <c r="E5" s="4">
-        <v>26279</v>
+        <v>26382</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>3779</v>
+        <v>3788</v>
       </c>
       <c r="C6" s="4">
         <v>647</v>
       </c>
       <c r="D6" s="4">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="E6" s="4">
-        <v>5341</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C7" s="4">
         <v>284</v>
       </c>
       <c r="D7" s="4">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="E7" s="4">
-        <v>2087</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>83811</v>
+        <v>83987</v>
       </c>
       <c r="C8" s="4">
         <v>1373</v>
       </c>
       <c r="D8" s="4">
-        <v>10779</v>
+        <v>10862</v>
       </c>
       <c r="E8" s="4">
-        <v>95963</v>
+        <v>96222</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>24471</v>
+        <v>24573</v>
       </c>
       <c r="C9" s="4">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D9" s="4">
-        <v>3550</v>
+        <v>3635</v>
       </c>
       <c r="E9" s="4">
-        <v>29785</v>
+        <v>29974</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2308</v>
+        <v>2315</v>
       </c>
       <c r="C10" s="4">
         <v>76</v>
       </c>
       <c r="D10" s="4">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E10" s="4">
-        <v>3303</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>11796</v>
+        <v>11849</v>
       </c>
       <c r="C11" s="4">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D11" s="4">
-        <v>6301</v>
+        <v>6344</v>
       </c>
       <c r="E11" s="4">
-        <v>18763</v>
+        <v>18861</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>78823</v>
+        <v>79135</v>
       </c>
       <c r="C12" s="4">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="D12" s="4">
-        <v>33257</v>
+        <v>33629</v>
       </c>
       <c r="E12" s="4">
-        <v>113932</v>
+        <v>114618</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,13 +1261,13 @@
         <v>1831</v>
       </c>
       <c r="C13" s="4">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D13" s="4">
-        <v>2619</v>
+        <v>2630</v>
       </c>
       <c r="E13" s="4">
-        <v>4802</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>46883</v>
+        <v>46984</v>
       </c>
       <c r="C14" s="4">
-        <v>7136</v>
+        <v>7162</v>
       </c>
       <c r="D14" s="4">
-        <v>15871</v>
+        <v>16131</v>
       </c>
       <c r="E14" s="4">
-        <v>69890</v>
+        <v>70277</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>341385</v>
+        <v>342257</v>
       </c>
       <c r="C15" s="4">
-        <v>14665</v>
+        <v>14669</v>
       </c>
       <c r="D15" s="4">
-        <v>57049</v>
+        <v>58213</v>
       </c>
       <c r="E15" s="4">
-        <v>413099</v>
+        <v>415139</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>3251946</v>
+        <v>3268400</v>
       </c>
       <c r="C16" s="4">
-        <v>66798</v>
+        <v>66820</v>
       </c>
       <c r="D16" s="4">
-        <v>434125</v>
+        <v>438340</v>
       </c>
       <c r="E16" s="4">
-        <v>3752869</v>
+        <v>3773560</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>7936</v>
+        <v>7961</v>
       </c>
       <c r="C17" s="4">
         <v>401</v>
       </c>
       <c r="D17" s="4">
-        <v>2145</v>
+        <v>2196</v>
       </c>
       <c r="E17" s="4">
-        <v>10482</v>
+        <v>10558</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,16 +1343,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4">
         <v>12</v>
       </c>
       <c r="D18" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>10924</v>
+        <v>10938</v>
       </c>
       <c r="C19" s="4">
         <v>519</v>
       </c>
       <c r="D19" s="4">
-        <v>7001</v>
+        <v>7039</v>
       </c>
       <c r="E19" s="4">
-        <v>18444</v>
+        <v>18496</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>79245</v>
+        <v>79363</v>
       </c>
       <c r="C20" s="4">
-        <v>10346</v>
+        <v>10348</v>
       </c>
       <c r="D20" s="4">
-        <v>25441</v>
+        <v>25649</v>
       </c>
       <c r="E20" s="4">
-        <v>115032</v>
+        <v>115360</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>470976</v>
+        <v>472394</v>
       </c>
       <c r="C21" s="4">
-        <v>23742</v>
+        <v>23760</v>
       </c>
       <c r="D21" s="4">
-        <v>81751</v>
+        <v>82484</v>
       </c>
       <c r="E21" s="4">
-        <v>576469</v>
+        <v>578638</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>368338</v>
+        <v>368915</v>
       </c>
       <c r="C22" s="4">
-        <v>11031</v>
+        <v>11037</v>
       </c>
       <c r="D22" s="4">
-        <v>36032</v>
+        <v>36397</v>
       </c>
       <c r="E22" s="4">
-        <v>415401</v>
+        <v>416349</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9027</v>
+        <v>9032</v>
       </c>
       <c r="C23" s="4">
         <v>154</v>
       </c>
       <c r="D23" s="4">
-        <v>2238</v>
+        <v>2331</v>
       </c>
       <c r="E23" s="4">
-        <v>11419</v>
+        <v>11517</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>22905</v>
+        <v>22933</v>
       </c>
       <c r="C25" s="4">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="D25" s="4">
-        <v>5062</v>
+        <v>5144</v>
       </c>
       <c r="E25" s="4">
-        <v>29674</v>
+        <v>29788</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>23149</v>
+        <v>23202</v>
       </c>
       <c r="C26" s="4">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D26" s="4">
-        <v>34488</v>
+        <v>34661</v>
       </c>
       <c r="E26" s="4">
-        <v>58738</v>
+        <v>58965</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>21327</v>
+        <v>21411</v>
       </c>
       <c r="C27" s="4">
         <v>726</v>
       </c>
       <c r="D27" s="4">
-        <v>4935</v>
+        <v>5083</v>
       </c>
       <c r="E27" s="4">
-        <v>26988</v>
+        <v>27220</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>49061</v>
+        <v>49263</v>
       </c>
       <c r="C28" s="4">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="D28" s="4">
-        <v>9199</v>
+        <v>9401</v>
       </c>
       <c r="E28" s="4">
-        <v>60070</v>
+        <v>60476</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>49237</v>
+        <v>49431</v>
       </c>
       <c r="C29" s="4">
         <v>1953</v>
       </c>
       <c r="D29" s="4">
-        <v>13649</v>
+        <v>14221</v>
       </c>
       <c r="E29" s="4">
-        <v>64839</v>
+        <v>65605</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>17968</v>
+        <v>18013</v>
       </c>
       <c r="C30" s="4">
         <v>1736</v>
       </c>
       <c r="D30" s="4">
-        <v>11366</v>
+        <v>11481</v>
       </c>
       <c r="E30" s="4">
-        <v>31070</v>
+        <v>31230</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>6333</v>
+        <v>6360</v>
       </c>
       <c r="C31" s="4">
         <v>296</v>
       </c>
       <c r="D31" s="4">
-        <v>8138</v>
+        <v>8265</v>
       </c>
       <c r="E31" s="4">
-        <v>14767</v>
+        <v>14921</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>368013</v>
+        <v>368760</v>
       </c>
       <c r="C32" s="4">
         <v>10201</v>
       </c>
       <c r="D32" s="4">
-        <v>114782</v>
+        <v>116207</v>
       </c>
       <c r="E32" s="4">
-        <v>492996</v>
+        <v>495168</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>7944</v>
+        <v>7951</v>
       </c>
       <c r="C33" s="4">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D33" s="4">
-        <v>3309</v>
+        <v>3338</v>
       </c>
       <c r="E33" s="4">
-        <v>11720</v>
+        <v>11759</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2296</v>
+        <v>2305</v>
       </c>
       <c r="C34" s="4">
         <v>979</v>
       </c>
       <c r="D34" s="4">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="E34" s="4">
-        <v>4279</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>16378</v>
+        <v>16401</v>
       </c>
       <c r="C35" s="4">
         <v>3288</v>
       </c>
       <c r="D35" s="4">
-        <v>8952</v>
+        <v>9068</v>
       </c>
       <c r="E35" s="4">
-        <v>28618</v>
+        <v>28757</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>5543</v>
+        <v>5550</v>
       </c>
       <c r="C36" s="4">
         <v>328</v>
       </c>
       <c r="D36" s="4">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="E36" s="4">
-        <v>8619</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>12241</v>
+        <v>12252</v>
       </c>
       <c r="C37" s="4">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D37" s="4">
-        <v>2642</v>
+        <v>2668</v>
       </c>
       <c r="E37" s="4">
-        <v>15743</v>
+        <v>15782</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>32763</v>
+        <v>32806</v>
       </c>
       <c r="C38" s="4">
         <v>1115</v>
       </c>
       <c r="D38" s="4">
-        <v>20267</v>
+        <v>20530</v>
       </c>
       <c r="E38" s="4">
-        <v>54145</v>
+        <v>54451</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>4513</v>
+        <v>4521</v>
       </c>
       <c r="C39" s="4">
         <v>401</v>
       </c>
       <c r="D39" s="4">
-        <v>5484</v>
+        <v>5510</v>
       </c>
       <c r="E39" s="4">
-        <v>10398</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>5521</v>
+        <v>5534</v>
       </c>
       <c r="C40" s="4">
         <v>541</v>
       </c>
       <c r="D40" s="4">
-        <v>3324</v>
+        <v>3362</v>
       </c>
       <c r="E40" s="4">
-        <v>9386</v>
+        <v>9437</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="C41" s="4">
         <v>27</v>
       </c>
       <c r="D41" s="4">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E41" s="4">
-        <v>1623</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="C42" s="4">
         <v>48</v>
       </c>
       <c r="D42" s="4">
-        <v>2797</v>
+        <v>2904</v>
       </c>
       <c r="E42" s="4">
-        <v>5424</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="C43" s="4">
         <v>145</v>
       </c>
       <c r="D43" s="4">
-        <v>3989</v>
+        <v>4010</v>
       </c>
       <c r="E43" s="4">
-        <v>7973</v>
+        <v>7998</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1303914</v>
+        <v>1309712</v>
       </c>
       <c r="C44" s="4">
-        <v>100079</v>
+        <v>100183</v>
       </c>
       <c r="D44" s="4">
-        <v>204278</v>
+        <v>205876</v>
       </c>
       <c r="E44" s="4">
-        <v>1608271</v>
+        <v>1615771</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="C45" s="4">
         <v>113</v>
@@ -1811,7 +1811,7 @@
         <v>2137</v>
       </c>
       <c r="E45" s="4">
-        <v>3713</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>15765</v>
+        <v>15804</v>
       </c>
       <c r="C46" s="4">
         <v>1145</v>
       </c>
       <c r="D46" s="4">
-        <v>7433</v>
+        <v>7469</v>
       </c>
       <c r="E46" s="4">
-        <v>24343</v>
+        <v>24418</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>151473</v>
+        <v>152097</v>
       </c>
       <c r="C47" s="4">
-        <v>10354</v>
+        <v>10355</v>
       </c>
       <c r="D47" s="4">
-        <v>37552</v>
+        <v>37972</v>
       </c>
       <c r="E47" s="4">
-        <v>199379</v>
+        <v>200424</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>9018</v>
+        <v>9126</v>
       </c>
       <c r="C48" s="4">
         <v>343</v>
       </c>
       <c r="D48" s="4">
-        <v>4222</v>
+        <v>4236</v>
       </c>
       <c r="E48" s="4">
-        <v>13583</v>
+        <v>13705</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="C49" s="4">
         <v>32</v>
       </c>
       <c r="D49" s="4">
-        <v>3020</v>
+        <v>3031</v>
       </c>
       <c r="E49" s="4">
-        <v>4986</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>28661</v>
+        <v>28699</v>
       </c>
       <c r="C50" s="4">
         <v>1859</v>
       </c>
       <c r="D50" s="4">
-        <v>9360</v>
+        <v>9472</v>
       </c>
       <c r="E50" s="4">
-        <v>39880</v>
+        <v>40030</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>116194</v>
+        <v>116356</v>
       </c>
       <c r="C51" s="4">
         <v>2332</v>
       </c>
       <c r="D51" s="4">
-        <v>16047</v>
+        <v>16395</v>
       </c>
       <c r="E51" s="4">
-        <v>134573</v>
+        <v>135083</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C52" s="4">
         <v>47</v>
       </c>
       <c r="D52" s="4">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E52" s="4">
-        <v>1878</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4694</v>
+        <v>4702</v>
       </c>
       <c r="C53" s="4">
         <v>84</v>
       </c>
       <c r="D53" s="4">
-        <v>3027</v>
+        <v>3082</v>
       </c>
       <c r="E53" s="4">
-        <v>7805</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C54" s="4">
         <v>25</v>
       </c>
       <c r="D54" s="4">
-        <v>3680</v>
+        <v>3689</v>
       </c>
       <c r="E54" s="4">
-        <v>4816</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3159</v>
+        <v>3165</v>
       </c>
       <c r="C55" s="4">
         <v>60</v>
       </c>
       <c r="D55" s="4">
-        <v>2551</v>
+        <v>2566</v>
       </c>
       <c r="E55" s="4">
-        <v>5770</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="C56" s="4">
         <v>38</v>
       </c>
       <c r="D56" s="4">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E56" s="4">
-        <v>2797</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="C57" s="4">
         <v>441</v>
       </c>
       <c r="D57" s="4">
-        <v>2479</v>
+        <v>2485</v>
       </c>
       <c r="E57" s="4">
-        <v>5337</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>3193777</v>
+        <v>3203059</v>
       </c>
       <c r="C58" s="4">
-        <v>153646</v>
+        <v>153715</v>
       </c>
       <c r="D58" s="4">
-        <v>416744</v>
+        <v>421186</v>
       </c>
       <c r="E58" s="4">
-        <v>3764167</v>
+        <v>3777960</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>10535</v>
+        <v>10542</v>
       </c>
       <c r="C59" s="4">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D59" s="4">
-        <v>4052</v>
+        <v>4092</v>
       </c>
       <c r="E59" s="4">
-        <v>15143</v>
+        <v>15191</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>13348</v>
+        <v>13390</v>
       </c>
       <c r="C60" s="4">
         <v>460</v>
       </c>
       <c r="D60" s="4">
-        <v>5655</v>
+        <v>5675</v>
       </c>
       <c r="E60" s="4">
-        <v>19463</v>
+        <v>19525</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>6055</v>
+        <v>6062</v>
       </c>
       <c r="C61" s="4">
         <v>1079</v>
       </c>
       <c r="D61" s="4">
-        <v>4168</v>
+        <v>4177</v>
       </c>
       <c r="E61" s="4">
-        <v>11302</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>2552</v>
+        <v>2557</v>
       </c>
       <c r="C62" s="4">
         <v>251</v>
       </c>
       <c r="D62" s="4">
-        <v>2035</v>
+        <v>2059</v>
       </c>
       <c r="E62" s="4">
-        <v>4838</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>785198</v>
+        <v>787641</v>
       </c>
       <c r="C63" s="4">
-        <v>74294</v>
+        <v>74400</v>
       </c>
       <c r="D63" s="4">
-        <v>171055</v>
+        <v>172997</v>
       </c>
       <c r="E63" s="4">
-        <v>1030547</v>
+        <v>1035038</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C64" s="4">
         <v>19</v>
@@ -2134,7 +2134,7 @@
         <v>597</v>
       </c>
       <c r="E64" s="4">
-        <v>1294</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>24191</v>
+        <v>24206</v>
       </c>
       <c r="C65" s="4">
         <v>122</v>
       </c>
       <c r="D65" s="4">
-        <v>37182</v>
+        <v>37253</v>
       </c>
       <c r="E65" s="4">
-        <v>61495</v>
+        <v>61581</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C66" s="4">
         <v>446</v>
       </c>
       <c r="D66" s="4">
-        <v>1330</v>
+        <v>1425</v>
       </c>
       <c r="E66" s="4">
-        <v>3329</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>21830</v>
+        <v>21850</v>
       </c>
       <c r="C67" s="4">
-        <v>3155</v>
+        <v>3161</v>
       </c>
       <c r="D67" s="4">
-        <v>8487</v>
+        <v>8733</v>
       </c>
       <c r="E67" s="4">
-        <v>33472</v>
+        <v>33744</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>6315</v>
+        <v>6336</v>
       </c>
       <c r="C68" s="4">
         <v>468</v>
       </c>
       <c r="D68" s="4">
-        <v>6564</v>
+        <v>6646</v>
       </c>
       <c r="E68" s="4">
-        <v>13347</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>76289</v>
+        <v>76485</v>
       </c>
       <c r="C69" s="4">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="D69" s="4">
-        <v>40312</v>
+        <v>40543</v>
       </c>
       <c r="E69" s="4">
-        <v>122427</v>
+        <v>122856</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="C70" s="4">
         <v>38</v>
       </c>
       <c r="D70" s="4">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="E70" s="4">
-        <v>2145</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1088890</v>
+        <v>1090487</v>
       </c>
       <c r="C71" s="4">
-        <v>21698</v>
+        <v>21700</v>
       </c>
       <c r="D71" s="4">
-        <v>492354</v>
+        <v>494361</v>
       </c>
       <c r="E71" s="4">
-        <v>1602942</v>
+        <v>1606548</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>218589</v>
+        <v>219331</v>
       </c>
       <c r="C72" s="4">
-        <v>8503</v>
+        <v>8509</v>
       </c>
       <c r="D72" s="4">
-        <v>36333</v>
+        <v>36812</v>
       </c>
       <c r="E72" s="4">
-        <v>263425</v>
+        <v>264652</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>27014</v>
+        <v>27103</v>
       </c>
       <c r="C73" s="4">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D73" s="4">
-        <v>12451</v>
+        <v>12475</v>
       </c>
       <c r="E73" s="4">
-        <v>41098</v>
+        <v>41212</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>16022</v>
+        <v>16044</v>
       </c>
       <c r="C74" s="4">
         <v>455</v>
       </c>
       <c r="D74" s="4">
-        <v>5725</v>
+        <v>5845</v>
       </c>
       <c r="E74" s="4">
-        <v>22202</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>37008</v>
+        <v>37191</v>
       </c>
       <c r="C75" s="4">
         <v>1011</v>
       </c>
       <c r="D75" s="4">
-        <v>8506</v>
+        <v>8699</v>
       </c>
       <c r="E75" s="4">
-        <v>46525</v>
+        <v>46901</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>19917</v>
+        <v>19942</v>
       </c>
       <c r="C76" s="4">
         <v>870</v>
       </c>
       <c r="D76" s="4">
-        <v>5510</v>
+        <v>5603</v>
       </c>
       <c r="E76" s="4">
-        <v>26297</v>
+        <v>26415</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C77" s="4">
         <v>39</v>
       </c>
       <c r="D77" s="4">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E77" s="4">
-        <v>2149</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>3558</v>
+        <v>3567</v>
       </c>
       <c r="C78" s="4">
         <v>162</v>
       </c>
       <c r="D78" s="4">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E78" s="4">
-        <v>4325</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C79" s="4">
         <v>121</v>
       </c>
       <c r="D79" s="4">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="E79" s="4">
-        <v>1611</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>939181</v>
+        <v>942103</v>
       </c>
       <c r="C80" s="4">
-        <v>46510</v>
+        <v>46526</v>
       </c>
       <c r="D80" s="4">
-        <v>110447</v>
+        <v>111990</v>
       </c>
       <c r="E80" s="4">
-        <v>1096138</v>
+        <v>1100619</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>5937</v>
+        <v>5952</v>
       </c>
       <c r="C81" s="4">
         <v>537</v>
       </c>
       <c r="D81" s="4">
-        <v>1386</v>
+        <v>1399</v>
       </c>
       <c r="E81" s="4">
-        <v>7860</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>19622</v>
+        <v>19662</v>
       </c>
       <c r="C82" s="4">
         <v>770</v>
       </c>
       <c r="D82" s="4">
-        <v>12412</v>
+        <v>12767</v>
       </c>
       <c r="E82" s="4">
-        <v>32804</v>
+        <v>33199</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>25673</v>
+        <v>25761</v>
       </c>
       <c r="C83" s="4">
         <v>562</v>
       </c>
       <c r="D83" s="4">
-        <v>6048</v>
+        <v>6121</v>
       </c>
       <c r="E83" s="4">
-        <v>32283</v>
+        <v>32444</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>4447</v>
+        <v>4466</v>
       </c>
       <c r="C84" s="4">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D84" s="4">
-        <v>1745</v>
+        <v>1763</v>
       </c>
       <c r="E84" s="4">
-        <v>6483</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>513184</v>
+        <v>514615</v>
       </c>
       <c r="C85" s="4">
-        <v>23881</v>
+        <v>23900</v>
       </c>
       <c r="D85" s="4">
-        <v>63745</v>
+        <v>64277</v>
       </c>
       <c r="E85" s="4">
-        <v>600810</v>
+        <v>602792</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,7 +2499,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>3244</v>
+        <v>3249</v>
       </c>
       <c r="C86" s="4">
         <v>66</v>
@@ -2508,7 +2508,7 @@
         <v>1667</v>
       </c>
       <c r="E86" s="4">
-        <v>4977</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>19028</v>
+        <v>19067</v>
       </c>
       <c r="C87" s="4">
         <v>787</v>
       </c>
       <c r="D87" s="4">
-        <v>8164</v>
+        <v>8233</v>
       </c>
       <c r="E87" s="4">
-        <v>27979</v>
+        <v>28087</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>46</v>
       </c>
       <c r="D88" s="4">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E88" s="4">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4033</v>
+        <v>4049</v>
       </c>
       <c r="C89" s="4">
         <v>260</v>
       </c>
       <c r="D89" s="4">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="E89" s="4">
-        <v>7453</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>15621</v>
+        <v>15652</v>
       </c>
       <c r="C90" s="4">
         <v>460</v>
       </c>
       <c r="D90" s="4">
-        <v>7913</v>
+        <v>7943</v>
       </c>
       <c r="E90" s="4">
-        <v>23994</v>
+        <v>24055</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>10432</v>
+        <v>10458</v>
       </c>
       <c r="C91" s="4">
         <v>1115</v>
       </c>
       <c r="D91" s="4">
-        <v>6039</v>
+        <v>6151</v>
       </c>
       <c r="E91" s="4">
-        <v>17586</v>
+        <v>17724</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>133688</v>
+        <v>134125</v>
       </c>
       <c r="C92" s="4">
-        <v>5235</v>
+        <v>5239</v>
       </c>
       <c r="D92" s="4">
-        <v>29377</v>
+        <v>29685</v>
       </c>
       <c r="E92" s="4">
-        <v>168300</v>
+        <v>169049</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>69615</v>
+        <v>69865</v>
       </c>
       <c r="C93" s="4">
-        <v>11604</v>
+        <v>11611</v>
       </c>
       <c r="D93" s="4">
-        <v>32924</v>
+        <v>33105</v>
       </c>
       <c r="E93" s="4">
-        <v>114143</v>
+        <v>114581</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>49050</v>
+        <v>49129</v>
       </c>
       <c r="C94" s="4">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D94" s="4">
-        <v>6137</v>
+        <v>6256</v>
       </c>
       <c r="E94" s="4">
-        <v>56511</v>
+        <v>56712</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>122976</v>
+        <v>123451</v>
       </c>
       <c r="C95" s="4">
-        <v>5195</v>
+        <v>5200</v>
       </c>
       <c r="D95" s="4">
-        <v>32785</v>
+        <v>33152</v>
       </c>
       <c r="E95" s="4">
-        <v>160956</v>
+        <v>161803</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>23851</v>
+        <v>23926</v>
       </c>
       <c r="C96" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D96" s="4">
-        <v>5095</v>
+        <v>5153</v>
       </c>
       <c r="E96" s="4">
-        <v>29420</v>
+        <v>29554</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,7 +2686,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C97" s="4">
         <v>67</v>
@@ -2695,7 +2695,7 @@
         <v>2611</v>
       </c>
       <c r="E97" s="4">
-        <v>4136</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>8407</v>
+        <v>8463</v>
       </c>
       <c r="C98" s="4">
         <v>405</v>
       </c>
       <c r="D98" s="4">
-        <v>2959</v>
+        <v>3005</v>
       </c>
       <c r="E98" s="4">
-        <v>11771</v>
+        <v>11873</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,7 +2720,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C99" s="4">
         <v>726</v>
@@ -2729,7 +2729,7 @@
         <v>2686</v>
       </c>
       <c r="E99" s="4">
-        <v>5028</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="C100" s="4">
         <v>275</v>
       </c>
       <c r="D100" s="4">
-        <v>1484</v>
+        <v>1547</v>
       </c>
       <c r="E100" s="4">
-        <v>3785</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>35695</v>
+        <v>35859</v>
       </c>
       <c r="C101" s="4">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="D101" s="4">
-        <v>18772</v>
+        <v>18924</v>
       </c>
       <c r="E101" s="4">
-        <v>58483</v>
+        <v>58801</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>5773850</v>
+        <v>5789958</v>
       </c>
       <c r="C102" s="4">
-        <v>256720</v>
+        <v>256857</v>
       </c>
       <c r="D102" s="4">
-        <v>781991</v>
+        <v>787978</v>
       </c>
       <c r="E102" s="4">
-        <v>6812561</v>
+        <v>6834793</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>76258</v>
+        <v>76368</v>
       </c>
       <c r="C103" s="4">
-        <v>8704</v>
+        <v>8710</v>
       </c>
       <c r="D103" s="4">
-        <v>21764</v>
+        <v>22013</v>
       </c>
       <c r="E103" s="4">
-        <v>106726</v>
+        <v>107091</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C104" s="4">
         <v>63</v>
       </c>
       <c r="D104" s="4">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E104" s="4">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="C105" s="4">
         <v>38</v>
       </c>
       <c r="D105" s="4">
-        <v>2191</v>
+        <v>2211</v>
       </c>
       <c r="E105" s="4">
-        <v>3844</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>356832</v>
+        <v>357946</v>
       </c>
       <c r="C106" s="4">
-        <v>13900</v>
+        <v>13909</v>
       </c>
       <c r="D106" s="4">
-        <v>40804</v>
+        <v>41407</v>
       </c>
       <c r="E106" s="4">
-        <v>411536</v>
+        <v>413262</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2862,10 +2862,10 @@
         <v>451</v>
       </c>
       <c r="D107" s="4">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="E107" s="4">
-        <v>1862</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>39227</v>
+        <v>39306</v>
       </c>
       <c r="C108" s="4">
         <v>2789</v>
       </c>
       <c r="D108" s="4">
-        <v>20157</v>
+        <v>20374</v>
       </c>
       <c r="E108" s="4">
-        <v>62173</v>
+        <v>62469</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>667795</v>
+        <v>668941</v>
       </c>
       <c r="C109" s="4">
         <v>19255</v>
       </c>
       <c r="D109" s="4">
-        <v>316933</v>
+        <v>320190</v>
       </c>
       <c r="E109" s="4">
-        <v>1003983</v>
+        <v>1008386</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>37489</v>
+        <v>37530</v>
       </c>
       <c r="C110" s="4">
         <v>1141</v>
       </c>
       <c r="D110" s="4">
-        <v>12633</v>
+        <v>12814</v>
       </c>
       <c r="E110" s="4">
-        <v>51263</v>
+        <v>51485</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>12494</v>
+        <v>12562</v>
       </c>
       <c r="C111" s="4">
         <v>212</v>
       </c>
       <c r="D111" s="4">
-        <v>4570</v>
+        <v>4610</v>
       </c>
       <c r="E111" s="4">
-        <v>17276</v>
+        <v>17384</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>45949</v>
+        <v>46094</v>
       </c>
       <c r="C112" s="4">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="D112" s="4">
-        <v>35148</v>
+        <v>35410</v>
       </c>
       <c r="E112" s="4">
-        <v>83961</v>
+        <v>84369</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>22551</v>
+        <v>22609</v>
       </c>
       <c r="C113" s="4">
         <v>2045</v>
       </c>
       <c r="D113" s="4">
-        <v>9295</v>
+        <v>9411</v>
       </c>
       <c r="E113" s="4">
-        <v>33891</v>
+        <v>34065</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>19141</v>
+        <v>19151</v>
       </c>
       <c r="C114" s="4">
         <v>632</v>
       </c>
       <c r="D114" s="4">
-        <v>7098</v>
+        <v>7194</v>
       </c>
       <c r="E114" s="4">
-        <v>26871</v>
+        <v>26977</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>20496</v>
+        <v>20516</v>
       </c>
       <c r="C115" s="4">
         <v>820</v>
       </c>
       <c r="D115" s="4">
-        <v>8784</v>
+        <v>9144</v>
       </c>
       <c r="E115" s="4">
-        <v>30100</v>
+        <v>30480</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="C116" s="4">
         <v>47</v>
       </c>
       <c r="D116" s="4">
-        <v>1449</v>
+        <v>1464</v>
       </c>
       <c r="E116" s="4">
-        <v>4477</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>107289</v>
+        <v>107758</v>
       </c>
       <c r="C117" s="4">
-        <v>4605</v>
+        <v>4618</v>
       </c>
       <c r="D117" s="4">
-        <v>30454</v>
+        <v>31087</v>
       </c>
       <c r="E117" s="4">
-        <v>142348</v>
+        <v>143463</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>10506</v>
+        <v>10555</v>
       </c>
       <c r="C118" s="4">
         <v>1551</v>
       </c>
       <c r="D118" s="4">
-        <v>7326</v>
+        <v>7408</v>
       </c>
       <c r="E118" s="4">
-        <v>19383</v>
+        <v>19514</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C119" s="4">
         <v>22</v>
       </c>
       <c r="D119" s="4">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E119" s="4">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>3279</v>
+        <v>3288</v>
       </c>
       <c r="C120" s="4">
         <v>236</v>
       </c>
       <c r="D120" s="4">
-        <v>1177</v>
+        <v>1199</v>
       </c>
       <c r="E120" s="4">
-        <v>4692</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>9496</v>
+        <v>9515</v>
       </c>
       <c r="C121" s="4">
         <v>376</v>
       </c>
       <c r="D121" s="4">
-        <v>4463</v>
+        <v>4490</v>
       </c>
       <c r="E121" s="4">
-        <v>14335</v>
+        <v>14381</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>22776</v>
+        <v>22950</v>
       </c>
       <c r="C122" s="4">
-        <v>2906</v>
+        <v>2911</v>
       </c>
       <c r="D122" s="4">
-        <v>9876</v>
+        <v>9984</v>
       </c>
       <c r="E122" s="4">
-        <v>35558</v>
+        <v>35845</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C123" s="4">
         <v>55</v>
       </c>
       <c r="D123" s="4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E123" s="4">
-        <v>2255</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>207797</v>
+        <v>208308</v>
       </c>
       <c r="C124" s="4">
-        <v>14917</v>
+        <v>14935</v>
       </c>
       <c r="D124" s="4">
-        <v>75272</v>
+        <v>76028</v>
       </c>
       <c r="E124" s="4">
-        <v>297986</v>
+        <v>299271</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3168,10 +3168,10 @@
         <v>697</v>
       </c>
       <c r="D125" s="4">
-        <v>9774</v>
+        <v>9976</v>
       </c>
       <c r="E125" s="4">
-        <v>25220</v>
+        <v>25422</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>63411</v>
+        <v>63585</v>
       </c>
       <c r="C126" s="4">
-        <v>10077</v>
+        <v>10097</v>
       </c>
       <c r="D126" s="4">
-        <v>27161</v>
+        <v>27369</v>
       </c>
       <c r="E126" s="4">
-        <v>100649</v>
+        <v>101051</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>157709</v>
+        <v>158200</v>
       </c>
       <c r="C127" s="4">
-        <v>8134</v>
+        <v>8143</v>
       </c>
       <c r="D127" s="4">
-        <v>32919</v>
+        <v>33294</v>
       </c>
       <c r="E127" s="4">
-        <v>198762</v>
+        <v>199637</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>9072</v>
+        <v>9095</v>
       </c>
       <c r="C128" s="4">
         <v>220</v>
       </c>
       <c r="D128" s="4">
-        <v>5726</v>
+        <v>5822</v>
       </c>
       <c r="E128" s="4">
-        <v>15018</v>
+        <v>15137</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>19513</v>
+        <v>19535</v>
       </c>
       <c r="C129" s="4">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D129" s="4">
-        <v>9904</v>
+        <v>9963</v>
       </c>
       <c r="E129" s="4">
-        <v>29949</v>
+        <v>30031</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>143886</v>
+        <v>144380</v>
       </c>
       <c r="C130" s="4">
-        <v>6416</v>
+        <v>6426</v>
       </c>
       <c r="D130" s="4">
-        <v>37455</v>
+        <v>37928</v>
       </c>
       <c r="E130" s="4">
-        <v>187757</v>
+        <v>188734</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>35232</v>
+        <v>35340</v>
       </c>
       <c r="C131" s="4">
-        <v>2284</v>
+        <v>2289</v>
       </c>
       <c r="D131" s="4">
-        <v>16279</v>
+        <v>16468</v>
       </c>
       <c r="E131" s="4">
-        <v>53795</v>
+        <v>54097</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E133" s="4">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>40187</v>
+        <v>40256</v>
       </c>
       <c r="C134" s="4">
         <v>1435</v>
       </c>
       <c r="D134" s="4">
-        <v>31135</v>
+        <v>31553</v>
       </c>
       <c r="E134" s="4">
-        <v>72757</v>
+        <v>73244</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2058</v>
+        <v>2063</v>
       </c>
       <c r="C135" s="4">
         <v>53</v>
       </c>
       <c r="D135" s="4">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="E135" s="4">
-        <v>3065</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>2827</v>
+        <v>2832</v>
       </c>
       <c r="C137" s="4">
         <v>51</v>
       </c>
       <c r="D137" s="4">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="E137" s="4">
-        <v>3482</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>35282</v>
+        <v>35327</v>
       </c>
       <c r="C138" s="4">
-        <v>5210</v>
+        <v>5214</v>
       </c>
       <c r="D138" s="4">
-        <v>13597</v>
+        <v>13715</v>
       </c>
       <c r="E138" s="4">
-        <v>54089</v>
+        <v>54256</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C139" s="4">
         <v>47</v>
       </c>
       <c r="D139" s="4">
-        <v>3697</v>
+        <v>3746</v>
       </c>
       <c r="E139" s="4">
-        <v>4565</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>9555</v>
+        <v>9568</v>
       </c>
       <c r="C140" s="4">
         <v>315</v>
       </c>
       <c r="D140" s="4">
-        <v>1280</v>
+        <v>1305</v>
       </c>
       <c r="E140" s="4">
-        <v>11150</v>
+        <v>11188</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>27090</v>
+        <v>27138</v>
       </c>
       <c r="C141" s="4">
         <v>2751</v>
       </c>
       <c r="D141" s="4">
-        <v>13252</v>
+        <v>13364</v>
       </c>
       <c r="E141" s="4">
-        <v>43093</v>
+        <v>43253</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>7465</v>
+        <v>7496</v>
       </c>
       <c r="C142" s="4">
         <v>152</v>
       </c>
       <c r="D142" s="4">
-        <v>7727</v>
+        <v>7762</v>
       </c>
       <c r="E142" s="4">
-        <v>15344</v>
+        <v>15410</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>24054</v>
+        <v>24114</v>
       </c>
       <c r="C143" s="4">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D143" s="4">
-        <v>6655</v>
+        <v>6695</v>
       </c>
       <c r="E143" s="4">
-        <v>31411</v>
+        <v>31515</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>16077</v>
+        <v>16114</v>
       </c>
       <c r="C144" s="4">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D144" s="4">
-        <v>7508</v>
+        <v>7830</v>
       </c>
       <c r="E144" s="4">
-        <v>24623</v>
+        <v>24983</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>10718</v>
+        <v>10763</v>
       </c>
       <c r="C145" s="4">
         <v>362</v>
       </c>
       <c r="D145" s="4">
-        <v>4837</v>
+        <v>4978</v>
       </c>
       <c r="E145" s="4">
-        <v>15917</v>
+        <v>16103</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>13667</v>
+        <v>13692</v>
       </c>
       <c r="C146" s="4">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D146" s="4">
-        <v>4715</v>
+        <v>4803</v>
       </c>
       <c r="E146" s="4">
-        <v>19155</v>
+        <v>19270</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>76720</v>
+        <v>76876</v>
       </c>
       <c r="C147" s="4">
         <v>4453</v>
       </c>
       <c r="D147" s="4">
-        <v>16723</v>
+        <v>16945</v>
       </c>
       <c r="E147" s="4">
-        <v>97896</v>
+        <v>98274</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>34712</v>
+        <v>34743</v>
       </c>
       <c r="C148" s="4">
         <v>700</v>
       </c>
       <c r="D148" s="4">
-        <v>20767</v>
+        <v>21699</v>
       </c>
       <c r="E148" s="4">
-        <v>56179</v>
+        <v>57142</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3576,10 +3576,10 @@
         <v>246</v>
       </c>
       <c r="D149" s="4">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E149" s="4">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>7795</v>
+        <v>7811</v>
       </c>
       <c r="C150" s="4">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="D150" s="4">
-        <v>4364</v>
+        <v>4452</v>
       </c>
       <c r="E150" s="4">
-        <v>13354</v>
+        <v>13462</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>15675</v>
+        <v>15724</v>
       </c>
       <c r="C151" s="4">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D151" s="4">
-        <v>3072</v>
+        <v>3108</v>
       </c>
       <c r="E151" s="4">
-        <v>19231</v>
+        <v>19317</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>274015</v>
+        <v>275244</v>
       </c>
       <c r="C153" s="4">
-        <v>10017</v>
+        <v>10024</v>
       </c>
       <c r="D153" s="4">
-        <v>131887</v>
+        <v>133236</v>
       </c>
       <c r="E153" s="4">
-        <v>415919</v>
+        <v>418504</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>3589</v>
+        <v>3597</v>
       </c>
       <c r="C154" s="4">
         <v>156</v>
       </c>
       <c r="D154" s="4">
-        <v>3591</v>
+        <v>3622</v>
       </c>
       <c r="E154" s="4">
-        <v>7336</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>16935</v>
+        <v>16952</v>
       </c>
       <c r="C155" s="4">
         <v>378</v>
       </c>
       <c r="D155" s="4">
-        <v>3858</v>
+        <v>3905</v>
       </c>
       <c r="E155" s="4">
-        <v>21171</v>
+        <v>21235</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>3487</v>
+        <v>3493</v>
       </c>
       <c r="C156" s="4">
         <v>850</v>
       </c>
       <c r="D156" s="4">
-        <v>2834</v>
+        <v>2857</v>
       </c>
       <c r="E156" s="4">
-        <v>7171</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C157" s="4">
         <v>215</v>
       </c>
       <c r="D157" s="4">
-        <v>1063</v>
+        <v>1076</v>
       </c>
       <c r="E157" s="4">
-        <v>2883</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2231</v>
+        <v>2236</v>
       </c>
       <c r="C158" s="4">
         <v>93</v>
       </c>
       <c r="D158" s="4">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="E158" s="4">
-        <v>3442</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>42922</v>
+        <v>42986</v>
       </c>
       <c r="C159" s="4">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D159" s="4">
-        <v>6010</v>
+        <v>6029</v>
       </c>
       <c r="E159" s="4">
-        <v>50775</v>
+        <v>50859</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>77621</v>
+        <v>77726</v>
       </c>
       <c r="C160" s="4">
         <v>499</v>
       </c>
       <c r="D160" s="4">
-        <v>16990</v>
+        <v>17030</v>
       </c>
       <c r="E160" s="4">
-        <v>95110</v>
+        <v>95255</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2933</v>
+        <v>2938</v>
       </c>
       <c r="C161" s="4">
         <v>76</v>
       </c>
       <c r="D161" s="4">
-        <v>3080</v>
+        <v>3104</v>
       </c>
       <c r="E161" s="4">
-        <v>6089</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>337690</v>
+        <v>338754</v>
       </c>
       <c r="C162" s="4">
-        <v>11444</v>
+        <v>11446</v>
       </c>
       <c r="D162" s="4">
-        <v>102029</v>
+        <v>103790</v>
       </c>
       <c r="E162" s="4">
-        <v>451163</v>
+        <v>453990</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,16 +3808,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C163" s="4">
         <v>53</v>
       </c>
       <c r="D163" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E163" s="4">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>41174</v>
+        <v>41279</v>
       </c>
       <c r="C164" s="4">
         <v>1529</v>
       </c>
       <c r="D164" s="4">
-        <v>10948</v>
+        <v>11072</v>
       </c>
       <c r="E164" s="4">
-        <v>53651</v>
+        <v>53880</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C165" s="4">
         <v>26</v>
       </c>
       <c r="D165" s="4">
-        <v>1519</v>
+        <v>1526</v>
       </c>
       <c r="E165" s="4">
-        <v>3820</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>65401</v>
+        <v>65549</v>
       </c>
       <c r="C166" s="4">
-        <v>9184</v>
+        <v>9202</v>
       </c>
       <c r="D166" s="4">
-        <v>65581</v>
+        <v>66035</v>
       </c>
       <c r="E166" s="4">
-        <v>140166</v>
+        <v>140786</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>21700</v>
+        <v>21756</v>
       </c>
       <c r="C167" s="4">
         <v>1178</v>
       </c>
       <c r="D167" s="4">
-        <v>10722</v>
+        <v>10789</v>
       </c>
       <c r="E167" s="4">
-        <v>33600</v>
+        <v>33723</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>6344</v>
+        <v>6350</v>
       </c>
       <c r="C168" s="4">
         <v>119</v>
       </c>
       <c r="D168" s="4">
-        <v>2112</v>
+        <v>2126</v>
       </c>
       <c r="E168" s="4">
-        <v>8575</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>7341</v>
+        <v>7350</v>
       </c>
       <c r="C169" s="4">
         <v>75</v>
       </c>
       <c r="D169" s="4">
-        <v>4110</v>
+        <v>4187</v>
       </c>
       <c r="E169" s="4">
-        <v>11526</v>
+        <v>11612</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>15157</v>
+        <v>15188</v>
       </c>
       <c r="C170" s="4">
         <v>1094</v>
       </c>
       <c r="D170" s="4">
-        <v>4715</v>
+        <v>4885</v>
       </c>
       <c r="E170" s="4">
-        <v>20966</v>
+        <v>21167</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>558624</v>
+        <v>560497</v>
       </c>
       <c r="C171" s="4">
-        <v>43179</v>
+        <v>43247</v>
       </c>
       <c r="D171" s="4">
-        <v>105815</v>
+        <v>106737</v>
       </c>
       <c r="E171" s="4">
-        <v>707618</v>
+        <v>710481</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>8823</v>
+        <v>8828</v>
       </c>
       <c r="C172" s="4">
         <v>1063</v>
       </c>
       <c r="D172" s="4">
-        <v>3190</v>
+        <v>3278</v>
       </c>
       <c r="E172" s="4">
-        <v>13076</v>
+        <v>13169</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>7850</v>
+        <v>7855</v>
       </c>
       <c r="C173" s="4">
         <v>768</v>
       </c>
       <c r="D173" s="4">
-        <v>6657</v>
+        <v>6734</v>
       </c>
       <c r="E173" s="4">
-        <v>15275</v>
+        <v>15357</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C174" s="4">
         <v>15</v>
@@ -4004,7 +4004,7 @@
         <v>175</v>
       </c>
       <c r="E174" s="4">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>53979</v>
+        <v>54129</v>
       </c>
       <c r="C175" s="4">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="D175" s="4">
-        <v>16041</v>
+        <v>16401</v>
       </c>
       <c r="E175" s="4">
-        <v>73861</v>
+        <v>74372</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>35151</v>
+        <v>35216</v>
       </c>
       <c r="C176" s="4">
         <v>1851</v>
       </c>
       <c r="D176" s="4">
-        <v>19736</v>
+        <v>20036</v>
       </c>
       <c r="E176" s="4">
-        <v>56738</v>
+        <v>57103</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>5859</v>
+        <v>5888</v>
       </c>
       <c r="C177" s="4">
         <v>846</v>
       </c>
       <c r="D177" s="4">
-        <v>4007</v>
+        <v>4020</v>
       </c>
       <c r="E177" s="4">
-        <v>10712</v>
+        <v>10754</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>9630</v>
+        <v>9641</v>
       </c>
       <c r="C178" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D178" s="4">
-        <v>5591</v>
+        <v>5621</v>
       </c>
       <c r="E178" s="4">
-        <v>15424</v>
+        <v>15466</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>303206</v>
+        <v>303691</v>
       </c>
       <c r="C179" s="4">
-        <v>49305</v>
+        <v>49327</v>
       </c>
       <c r="D179" s="4">
-        <v>114952</v>
+        <v>116790</v>
       </c>
       <c r="E179" s="4">
-        <v>467463</v>
+        <v>469808</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C180" s="4">
         <v>326</v>
       </c>
       <c r="D180" s="4">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="E180" s="4">
-        <v>1972</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C181" s="4">
         <v>340</v>
       </c>
       <c r="D181" s="4">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="E181" s="4">
-        <v>2027</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>45262</v>
+        <v>45471</v>
       </c>
       <c r="C182" s="4">
-        <v>6588</v>
+        <v>6594</v>
       </c>
       <c r="D182" s="4">
-        <v>20868</v>
+        <v>21006</v>
       </c>
       <c r="E182" s="4">
-        <v>72718</v>
+        <v>73071</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>19871</v>
+        <v>19948</v>
       </c>
       <c r="C183" s="4">
         <v>1032</v>
       </c>
       <c r="D183" s="4">
-        <v>9445</v>
+        <v>9585</v>
       </c>
       <c r="E183" s="4">
-        <v>30348</v>
+        <v>30565</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>12425</v>
+        <v>12443</v>
       </c>
       <c r="C184" s="4">
         <v>1229</v>
       </c>
       <c r="D184" s="4">
-        <v>6314</v>
+        <v>6393</v>
       </c>
       <c r="E184" s="4">
-        <v>19968</v>
+        <v>20065</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>104061</v>
+        <v>104498</v>
       </c>
       <c r="C185" s="4">
-        <v>7000</v>
+        <v>7010</v>
       </c>
       <c r="D185" s="4">
-        <v>29352</v>
+        <v>29521</v>
       </c>
       <c r="E185" s="4">
-        <v>140413</v>
+        <v>141029</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="C186" s="4">
         <v>297</v>
       </c>
       <c r="D186" s="4">
-        <v>2429</v>
+        <v>2439</v>
       </c>
       <c r="E186" s="4">
-        <v>5361</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>13165</v>
+        <v>13177</v>
       </c>
       <c r="C187" s="4">
         <v>153</v>
       </c>
       <c r="D187" s="4">
-        <v>2995</v>
+        <v>3053</v>
       </c>
       <c r="E187" s="4">
-        <v>16313</v>
+        <v>16383</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>48651</v>
+        <v>48726</v>
       </c>
       <c r="C188" s="4">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="D188" s="4">
-        <v>16207</v>
+        <v>16363</v>
       </c>
       <c r="E188" s="4">
-        <v>67496</v>
+        <v>67731</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>95975</v>
+        <v>96255</v>
       </c>
       <c r="C189" s="4">
-        <v>8466</v>
+        <v>8467</v>
       </c>
       <c r="D189" s="4">
-        <v>28208</v>
+        <v>28445</v>
       </c>
       <c r="E189" s="4">
-        <v>132649</v>
+        <v>133167</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7677</v>
+        <v>7684</v>
       </c>
       <c r="C190" s="4">
         <v>59</v>
       </c>
       <c r="D190" s="4">
-        <v>2032</v>
+        <v>2073</v>
       </c>
       <c r="E190" s="4">
-        <v>9768</v>
+        <v>9816</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>4510</v>
+        <v>4527</v>
       </c>
       <c r="C191" s="4">
         <v>456</v>
       </c>
       <c r="D191" s="4">
-        <v>2096</v>
+        <v>2149</v>
       </c>
       <c r="E191" s="4">
-        <v>7062</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>65683</v>
+        <v>65922</v>
       </c>
       <c r="C192" s="4">
         <v>17227</v>
       </c>
       <c r="D192" s="4">
-        <v>25737</v>
+        <v>25963</v>
       </c>
       <c r="E192" s="4">
-        <v>108647</v>
+        <v>109112</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>38</v>
       </c>
       <c r="D193" s="4">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E193" s="4">
-        <v>1731</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="C194" s="4">
         <v>98</v>
       </c>
       <c r="D194" s="4">
-        <v>1136</v>
+        <v>1182</v>
       </c>
       <c r="E194" s="4">
-        <v>3551</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>7316</v>
+        <v>7333</v>
       </c>
       <c r="C195" s="4">
         <v>660</v>
       </c>
       <c r="D195" s="4">
-        <v>5187</v>
+        <v>5404</v>
       </c>
       <c r="E195" s="4">
-        <v>13163</v>
+        <v>13397</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>10516</v>
+        <v>10520</v>
       </c>
       <c r="C196" s="4">
         <v>384</v>
       </c>
       <c r="D196" s="4">
-        <v>85911</v>
+        <v>85939</v>
       </c>
       <c r="E196" s="4">
-        <v>96811</v>
+        <v>96843</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>4892</v>
+        <v>4895</v>
       </c>
       <c r="C197" s="4">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D197" s="4">
-        <v>5953</v>
+        <v>6005</v>
       </c>
       <c r="E197" s="4">
-        <v>11310</v>
+        <v>11367</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>16064</v>
+        <v>16092</v>
       </c>
       <c r="C199" s="4">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D199" s="4">
-        <v>10168</v>
+        <v>10284</v>
       </c>
       <c r="E199" s="4">
-        <v>26709</v>
+        <v>26855</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>96476</v>
+        <v>96748</v>
       </c>
       <c r="C200" s="4">
-        <v>6937</v>
+        <v>6957</v>
       </c>
       <c r="D200" s="4">
-        <v>13348</v>
+        <v>13550</v>
       </c>
       <c r="E200" s="4">
-        <v>116761</v>
+        <v>117255</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>7197</v>
+        <v>7199</v>
       </c>
       <c r="C201" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D201" s="4">
-        <v>5464</v>
+        <v>5496</v>
       </c>
       <c r="E201" s="4">
-        <v>12878</v>
+        <v>12913</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>29713</v>
+        <v>29824</v>
       </c>
       <c r="C202" s="4">
         <v>2316</v>
       </c>
       <c r="D202" s="4">
-        <v>6920</v>
+        <v>7021</v>
       </c>
       <c r="E202" s="4">
-        <v>38949</v>
+        <v>39161</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>9071</v>
+        <v>9110</v>
       </c>
       <c r="C203" s="4">
         <v>693</v>
       </c>
       <c r="D203" s="4">
-        <v>4182</v>
+        <v>4199</v>
       </c>
       <c r="E203" s="4">
-        <v>13946</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>8525</v>
+        <v>8535</v>
       </c>
       <c r="C204" s="4">
         <v>264</v>
       </c>
       <c r="D204" s="4">
-        <v>7032</v>
+        <v>7153</v>
       </c>
       <c r="E204" s="4">
-        <v>15821</v>
+        <v>15952</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>26111</v>
+        <v>26198</v>
       </c>
       <c r="C205" s="4">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="D205" s="4">
-        <v>7844</v>
+        <v>7919</v>
       </c>
       <c r="E205" s="4">
-        <v>36292</v>
+        <v>36455</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>46273</v>
+        <v>46387</v>
       </c>
       <c r="C206" s="4">
-        <v>9185</v>
+        <v>9203</v>
       </c>
       <c r="D206" s="4">
-        <v>33015</v>
+        <v>33407</v>
       </c>
       <c r="E206" s="4">
-        <v>88473</v>
+        <v>88997</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>4223</v>
+        <v>4231</v>
       </c>
       <c r="C207" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D207" s="4">
-        <v>3173</v>
+        <v>3199</v>
       </c>
       <c r="E207" s="4">
-        <v>7503</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E208" s="4">
-        <v>1744</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>22837</v>
+        <v>22899</v>
       </c>
       <c r="C209" s="4">
         <v>308</v>
       </c>
       <c r="D209" s="4">
-        <v>2054</v>
+        <v>2132</v>
       </c>
       <c r="E209" s="4">
-        <v>25199</v>
+        <v>25339</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="C210" s="4">
         <v>88</v>
       </c>
       <c r="D210" s="4">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="E210" s="4">
-        <v>1896</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>16848</v>
+        <v>16901</v>
       </c>
       <c r="C211" s="4">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="D211" s="4">
-        <v>6705</v>
+        <v>6814</v>
       </c>
       <c r="E211" s="4">
-        <v>24793</v>
+        <v>24959</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>243371</v>
+        <v>243701</v>
       </c>
       <c r="C213" s="4">
-        <v>12204</v>
+        <v>12208</v>
       </c>
       <c r="D213" s="4">
-        <v>59643</v>
+        <v>60204</v>
       </c>
       <c r="E213" s="4">
-        <v>315218</v>
+        <v>316113</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>6351</v>
+        <v>6366</v>
       </c>
       <c r="C214" s="4">
         <v>419</v>
       </c>
       <c r="D214" s="4">
-        <v>6556</v>
+        <v>6585</v>
       </c>
       <c r="E214" s="4">
-        <v>13326</v>
+        <v>13370</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>65885</v>
+        <v>65986</v>
       </c>
       <c r="C215" s="4">
         <v>794</v>
       </c>
       <c r="D215" s="4">
-        <v>30578</v>
+        <v>31258</v>
       </c>
       <c r="E215" s="4">
-        <v>97257</v>
+        <v>98038</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>4874</v>
+        <v>4894</v>
       </c>
       <c r="C216" s="4">
         <v>148</v>
       </c>
       <c r="D216" s="4">
-        <v>3610</v>
+        <v>3629</v>
       </c>
       <c r="E216" s="4">
-        <v>8632</v>
+        <v>8671</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>17</v>
       </c>
       <c r="D217" s="4">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E217" s="4">
-        <v>1396</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>9</v>
       </c>
       <c r="D218" s="4">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="E218" s="4">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C219" s="4">
         <v>41</v>
       </c>
       <c r="D219" s="4">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="E219" s="4">
-        <v>2559</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>6633</v>
+        <v>6689</v>
       </c>
       <c r="C220" s="4">
         <v>365</v>
       </c>
       <c r="D220" s="4">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="E220" s="4">
-        <v>8568</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2219122</v>
+        <v>2226690</v>
       </c>
       <c r="C221" s="4">
-        <v>105529</v>
+        <v>105625</v>
       </c>
       <c r="D221" s="4">
-        <v>406571</v>
+        <v>409444</v>
       </c>
       <c r="E221" s="4">
-        <v>2731222</v>
+        <v>2741759</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>101581</v>
+        <v>101985</v>
       </c>
       <c r="C222" s="4">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="D222" s="4">
-        <v>90485</v>
+        <v>92639</v>
       </c>
       <c r="E222" s="4">
-        <v>196051</v>
+        <v>198611</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4834,10 +4834,10 @@
         <v>9</v>
       </c>
       <c r="D223" s="4">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E223" s="4">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>4928</v>
+        <v>4944</v>
       </c>
       <c r="C224" s="4">
         <v>132</v>
       </c>
       <c r="D224" s="4">
-        <v>2899</v>
+        <v>2961</v>
       </c>
       <c r="E224" s="4">
-        <v>7959</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C225" s="4">
         <v>37</v>
       </c>
       <c r="D225" s="4">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E225" s="4">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>28540</v>
+        <v>28566</v>
       </c>
       <c r="C226" s="4">
         <v>1298</v>
       </c>
       <c r="D226" s="4">
-        <v>7255</v>
+        <v>7411</v>
       </c>
       <c r="E226" s="4">
-        <v>37093</v>
+        <v>37275</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>88272</v>
+        <v>88354</v>
       </c>
       <c r="C227" s="4">
-        <v>2660</v>
+        <v>2669</v>
       </c>
       <c r="D227" s="4">
-        <v>85749</v>
+        <v>86494</v>
       </c>
       <c r="E227" s="4">
-        <v>176681</v>
+        <v>177517</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1469630</v>
+        <v>1476972</v>
       </c>
       <c r="C228" s="4">
-        <v>61766</v>
+        <v>61825</v>
       </c>
       <c r="D228" s="4">
-        <v>295868</v>
+        <v>299062</v>
       </c>
       <c r="E228" s="4">
-        <v>1827264</v>
+        <v>1837859</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>16252</v>
+        <v>16293</v>
       </c>
       <c r="C229" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D229" s="4">
-        <v>5799</v>
+        <v>5899</v>
       </c>
       <c r="E229" s="4">
-        <v>22610</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>13812</v>
+        <v>13845</v>
       </c>
       <c r="C230" s="4">
         <v>1056</v>
       </c>
       <c r="D230" s="4">
-        <v>8564</v>
+        <v>8601</v>
       </c>
       <c r="E230" s="4">
-        <v>23432</v>
+        <v>23502</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>14247</v>
+        <v>14266</v>
       </c>
       <c r="C231" s="4">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="D231" s="4">
-        <v>7178</v>
+        <v>7239</v>
       </c>
       <c r="E231" s="4">
-        <v>23737</v>
+        <v>23819</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C232" s="4">
         <v>90</v>
       </c>
       <c r="D232" s="4">
-        <v>3029</v>
+        <v>3060</v>
       </c>
       <c r="E232" s="4">
-        <v>4114</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>34481</v>
+        <v>34610</v>
       </c>
       <c r="C233" s="4">
         <v>516</v>
       </c>
       <c r="D233" s="4">
-        <v>3611</v>
+        <v>3672</v>
       </c>
       <c r="E233" s="4">
-        <v>38608</v>
+        <v>38798</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>56268</v>
+        <v>56356</v>
       </c>
       <c r="C234" s="4">
         <v>1323</v>
       </c>
       <c r="D234" s="4">
-        <v>24403</v>
+        <v>24686</v>
       </c>
       <c r="E234" s="4">
-        <v>81994</v>
+        <v>82365</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>27325</v>
+        <v>27454</v>
       </c>
       <c r="C235" s="4">
-        <v>2148</v>
+        <v>2153</v>
       </c>
       <c r="D235" s="4">
-        <v>15925</v>
+        <v>16046</v>
       </c>
       <c r="E235" s="4">
-        <v>45398</v>
+        <v>45653</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>61746</v>
+        <v>62006</v>
       </c>
       <c r="C236" s="4">
         <v>3614</v>
       </c>
       <c r="D236" s="4">
-        <v>25601</v>
+        <v>25727</v>
       </c>
       <c r="E236" s="4">
-        <v>90961</v>
+        <v>91347</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>147471</v>
+        <v>147745</v>
       </c>
       <c r="C237" s="4">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="D237" s="4">
-        <v>29493</v>
+        <v>30047</v>
       </c>
       <c r="E237" s="4">
-        <v>180019</v>
+        <v>180848</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>48632</v>
+        <v>48802</v>
       </c>
       <c r="C238" s="4">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="D238" s="4">
-        <v>8005</v>
+        <v>8170</v>
       </c>
       <c r="E238" s="4">
-        <v>58845</v>
+        <v>59182</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5155</v>
+        <v>5164</v>
       </c>
       <c r="C239" s="4">
         <v>215</v>
       </c>
       <c r="D239" s="4">
-        <v>1286</v>
+        <v>1296</v>
       </c>
       <c r="E239" s="4">
-        <v>6656</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>47242</v>
+        <v>47347</v>
       </c>
       <c r="C240" s="4">
         <v>1890</v>
       </c>
       <c r="D240" s="4">
-        <v>18769</v>
+        <v>19322</v>
       </c>
       <c r="E240" s="4">
-        <v>67901</v>
+        <v>68559</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>453242</v>
+        <v>453768</v>
       </c>
       <c r="C241" s="4">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="D241" s="4">
-        <v>103731</v>
+        <v>105556</v>
       </c>
       <c r="E241" s="4">
-        <v>562872</v>
+        <v>565224</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>42478</v>
+        <v>42572</v>
       </c>
       <c r="C242" s="4">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="D242" s="4">
-        <v>7533</v>
+        <v>7660</v>
       </c>
       <c r="E242" s="4">
-        <v>52320</v>
+        <v>52543</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="C243" s="4">
         <v>441</v>
       </c>
       <c r="D243" s="4">
-        <v>3373</v>
+        <v>3389</v>
       </c>
       <c r="E243" s="4">
-        <v>5772</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>130985</v>
+        <v>131178</v>
       </c>
       <c r="C244" s="4">
         <v>8673</v>
       </c>
       <c r="D244" s="4">
-        <v>38136</v>
+        <v>39115</v>
       </c>
       <c r="E244" s="4">
-        <v>177794</v>
+        <v>178966</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>14959</v>
+        <v>14997</v>
       </c>
       <c r="C245" s="4">
         <v>673</v>
       </c>
       <c r="D245" s="4">
-        <v>8592</v>
+        <v>9272</v>
       </c>
       <c r="E245" s="4">
-        <v>24224</v>
+        <v>24942</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>39163</v>
+        <v>39336</v>
       </c>
       <c r="C246" s="4">
         <v>221</v>
       </c>
       <c r="D246" s="4">
-        <v>6025</v>
+        <v>6155</v>
       </c>
       <c r="E246" s="4">
-        <v>45409</v>
+        <v>45712</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>636004</v>
+        <v>638241</v>
       </c>
       <c r="C247" s="4">
-        <v>25579</v>
+        <v>25620</v>
       </c>
       <c r="D247" s="4">
-        <v>141089</v>
+        <v>142560</v>
       </c>
       <c r="E247" s="4">
-        <v>802672</v>
+        <v>806421</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>45399</v>
+        <v>45557</v>
       </c>
       <c r="C248" s="4">
         <v>1371</v>
       </c>
       <c r="D248" s="4">
-        <v>13229</v>
+        <v>13311</v>
       </c>
       <c r="E248" s="4">
-        <v>59999</v>
+        <v>60239</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1309</v>
+        <v>1319</v>
       </c>
       <c r="C249" s="4">
         <v>69</v>
       </c>
       <c r="D249" s="4">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E249" s="4">
-        <v>1817</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>61920</v>
+        <v>62011</v>
       </c>
       <c r="C250" s="4">
-        <v>3659</v>
+        <v>3661</v>
       </c>
       <c r="D250" s="4">
-        <v>11754</v>
+        <v>11822</v>
       </c>
       <c r="E250" s="4">
-        <v>77333</v>
+        <v>77494</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>24309</v>
+        <v>24385</v>
       </c>
       <c r="C251" s="4">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="D251" s="4">
-        <v>11253</v>
+        <v>11401</v>
       </c>
       <c r="E251" s="4">
-        <v>37678</v>
+        <v>37904</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="C252" s="4">
         <v>155</v>
       </c>
       <c r="D252" s="4">
-        <v>1361</v>
+        <v>1404</v>
       </c>
       <c r="E252" s="4">
-        <v>4157</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>9002</v>
+        <v>9016</v>
       </c>
       <c r="C253" s="4">
         <v>608</v>
       </c>
       <c r="D253" s="4">
-        <v>3940</v>
+        <v>3957</v>
       </c>
       <c r="E253" s="4">
-        <v>13550</v>
+        <v>13581</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>17520</v>
+        <v>17524</v>
       </c>
       <c r="C254" s="4">
         <v>143</v>
       </c>
       <c r="D254" s="4">
-        <v>12974</v>
+        <v>13207</v>
       </c>
       <c r="E254" s="4">
-        <v>30637</v>
+        <v>30874</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>11711</v>
+        <v>11724</v>
       </c>
       <c r="C255" s="4">
         <v>263</v>
       </c>
       <c r="D255" s="4">
-        <v>2164</v>
+        <v>2199</v>
       </c>
       <c r="E255" s="4">
-        <v>14138</v>
+        <v>14186</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>183916</v>
+        <v>184155</v>
       </c>
       <c r="C256" s="4">
-        <v>13399</v>
+        <v>13403</v>
       </c>
       <c r="D256" s="4">
-        <v>13604</v>
+        <v>13647</v>
       </c>
       <c r="E256" s="4">
-        <v>210919</v>
+        <v>211205</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>32061788</v>
+        <v>32162347</v>
       </c>
       <c r="C257" s="4">
-        <v>1543216</v>
+        <v>1544352</v>
       </c>
       <c r="D257" s="4">
-        <v>7176467</v>
+        <v>7252783</v>
       </c>
       <c r="E257" s="4">
-        <v>40781471</v>
+        <v>40959482</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
